--- a/Analysis-Config.xlsx
+++ b/Analysis-Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justu\OneDrive\Projekte\Forschung\R-Projects\LMStudioToCursor\r-analysis-script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6D5581-5A97-4BF3-BB76-6BC8F3B0B6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4324399-B138-42E3-8850-5C7638A093E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variablen" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
   <si>
     <t>variable_name</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>sonstiges_offen</t>
+  </si>
+  <si>
+    <t>question_text2</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -454,8 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -477,7 +479,139 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -508,6 +642,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -524,6 +659,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -542,6 +678,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -560,10 +697,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -578,8 +714,17 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -589,35 +734,10 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -653,7 +773,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -670,7 +789,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -689,7 +807,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -708,7 +825,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -733,13 +849,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -749,6 +858,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -837,7 +953,9 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -852,6 +970,76 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -860,13 +1048,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -876,6 +1057,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -910,176 +1098,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1094,11 +1112,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9504C342-0144-45F1-851A-1FE837D51231}" name="Tabelle1" displayName="Tabelle1" ref="A1:H20" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
-  <autoFilter ref="A1:H20" xr:uid="{9504C342-0144-45F1-851A-1FE837D51231}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5D9F8B76-60BE-4D8B-A2AF-64B07F4BEC88}" name="variable_name" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{E7BCDD6E-FE7E-4A9B-B9F4-3DAB523C0B68}" name="question_text" dataDxfId="32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9504C342-0144-45F1-851A-1FE837D51231}" name="Tabelle1" displayName="Tabelle1" ref="A1:I20" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="A1:I20" xr:uid="{9504C342-0144-45F1-851A-1FE837D51231}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{5D9F8B76-60BE-4D8B-A2AF-64B07F4BEC88}" name="question_text" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{70ED7017-B690-48F7-853B-8577B1B2E550}" name="variable_name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E7BCDD6E-FE7E-4A9B-B9F4-3DAB523C0B68}" name="question_text2" dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{D3385612-2A25-4F09-9419-897CF1ACF4C0}" name="data_type" dataDxfId="31"/>
     <tableColumn id="4" xr3:uid="{AC53B95D-A3D2-4C2B-9AC1-AE8FCE19DF71}" name="coding" dataDxfId="30"/>
     <tableColumn id="5" xr3:uid="{CE35BBB3-94A4-47D7-A7ED-1D31E47E3176}" name="min_value" dataDxfId="29"/>
@@ -1111,7 +1130,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2542F22-8C20-401E-B279-91CD9A013EBE}" name="Tabelle2" displayName="Tabelle2" ref="A1:D25" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2542F22-8C20-401E-B279-91CD9A013EBE}" name="Tabelle2" displayName="Tabelle2" ref="A1:D25" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:D25" xr:uid="{E2542F22-8C20-401E-B279-91CD9A013EBE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0FCAD91D-4E70-4389-9780-55F031E0C396}" name="analysis_name" dataDxfId="21"/>
@@ -1124,7 +1143,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEC52F0B-9636-4F75-8E75-807DC6C187A1}" name="Tabelle3" displayName="Tabelle3" ref="A1:D24" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DEC52F0B-9636-4F75-8E75-807DC6C187A1}" name="Tabelle3" displayName="Tabelle3" ref="A1:D24" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A1:D24" xr:uid="{DEC52F0B-9636-4F75-8E75-807DC6C187A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AC1B9ADA-AC72-4D03-AB4A-84399000C73E}" name="regression_name" dataDxfId="13"/>
@@ -1137,7 +1156,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FC00A2E6-EB80-4D29-A822-517D600C5955}" name="Tabelle4" displayName="Tabelle4" ref="A1:E28" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FC00A2E6-EB80-4D29-A822-517D600C5955}" name="Tabelle4" displayName="Tabelle4" ref="A1:E28" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:E28" xr:uid="{FC00A2E6-EB80-4D29-A822-517D600C5955}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDDEFBD9-E61F-462F-9EB6-C21A7D88210A}" name="analysis_name" dataDxfId="5"/>
@@ -1413,656 +1432,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="12" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="17"/>
+    <col min="1" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="28.8">
+    <row r="4" spans="1:9" ht="28.8">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="43.2">
+    <row r="5" spans="1:9" ht="43.2">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>5</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" ht="28.8">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" ht="28.8">
+    <row r="8" spans="1:9" ht="28.8">
       <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="43.2">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="43.2">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="28.8">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="28.8">
       <c r="A10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1">
+    <row r="11" spans="1:9" s="4" customFormat="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1">
+      <c r="H11" s="3"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" customFormat="1">
+      <c r="H12" s="3"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1">
+      <c r="H13" s="3"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="8"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" customFormat="1">
+      <c r="H14" s="3"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="8"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" customFormat="1">
+      <c r="H15" s="3"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" customFormat="1">
+      <c r="H16" s="3"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" customFormat="1">
+      <c r="H17" s="3"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="8"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" customFormat="1">
+      <c r="H18" s="3"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" customFormat="1">
+      <c r="H19" s="3"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" s="17" customFormat="1">
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" s="17" customFormat="1">
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" s="17" customFormat="1">
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" s="17" customFormat="1">
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" s="17" customFormat="1">
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" s="17" customFormat="1">
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" s="17" customFormat="1">
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" s="17" customFormat="1">
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" s="17" customFormat="1">
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" s="17" customFormat="1">
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" s="17" customFormat="1">
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" s="17" customFormat="1">
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="7:8" s="17" customFormat="1">
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="7:8" s="17" customFormat="1">
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="7:8" s="17" customFormat="1">
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="7:8" s="17" customFormat="1">
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="7:8" s="17" customFormat="1">
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="7:8" s="17" customFormat="1">
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="7:8" s="17" customFormat="1">
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="7:8" s="17" customFormat="1">
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="7:8" s="17" customFormat="1">
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="7:8" s="17" customFormat="1">
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="7:8" s="17" customFormat="1">
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="7:8" s="17" customFormat="1">
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="7:8" s="17" customFormat="1">
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="7:8" s="17" customFormat="1">
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="7:8" s="17" customFormat="1">
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="7:8" s="17" customFormat="1">
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="7:8" s="17" customFormat="1">
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="7:8" s="17" customFormat="1">
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="7:8" s="17" customFormat="1">
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="7:8" s="17" customFormat="1">
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="7:8" s="17" customFormat="1">
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="7:8" s="17" customFormat="1">
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" spans="7:8" s="17" customFormat="1">
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="7:8" s="17" customFormat="1">
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="7:8" s="17" customFormat="1">
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" spans="7:8" s="17" customFormat="1">
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="7:8" s="17" customFormat="1">
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" spans="7:8" s="17" customFormat="1">
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" spans="7:8" s="17" customFormat="1">
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-    </row>
-    <row r="62" spans="7:8" s="17" customFormat="1">
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-    </row>
-    <row r="63" spans="7:8" s="17" customFormat="1">
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-    </row>
-    <row r="64" spans="7:8" s="17" customFormat="1">
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="7:8" s="17" customFormat="1">
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" spans="7:8" s="17" customFormat="1">
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-    </row>
-    <row r="67" spans="7:8" s="17" customFormat="1">
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-    </row>
-    <row r="68" spans="7:8" s="17" customFormat="1">
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" spans="7:8" s="17" customFormat="1">
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-    </row>
-    <row r="70" spans="7:8" s="17" customFormat="1">
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-    </row>
-    <row r="71" spans="7:8" s="17" customFormat="1">
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-    </row>
-    <row r="72" spans="7:8" s="17" customFormat="1">
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-    </row>
-    <row r="73" spans="7:8" s="17" customFormat="1">
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-    </row>
-    <row r="74" spans="7:8" s="17" customFormat="1">
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-    </row>
-    <row r="75" spans="7:8" s="17" customFormat="1">
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-    </row>
-    <row r="76" spans="7:8" s="17" customFormat="1">
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-    </row>
-    <row r="77" spans="7:8" s="17" customFormat="1">
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-    </row>
-    <row r="78" spans="7:8" s="17" customFormat="1">
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-    </row>
-    <row r="79" spans="7:8" s="17" customFormat="1">
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-    </row>
-    <row r="80" spans="7:8" s="17" customFormat="1">
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-    </row>
-    <row r="81" spans="7:8" s="17" customFormat="1">
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-    </row>
-    <row r="82" spans="7:8" s="17" customFormat="1">
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-    </row>
-    <row r="83" spans="7:8" s="17" customFormat="1">
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-    </row>
-    <row r="84" spans="7:8" s="17" customFormat="1">
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-    </row>
-    <row r="85" spans="7:8" s="17" customFormat="1">
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-    </row>
-    <row r="86" spans="7:8" s="17" customFormat="1">
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-    </row>
-    <row r="87" spans="7:8" s="17" customFormat="1">
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-    </row>
-    <row r="88" spans="7:8" s="17" customFormat="1">
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-    </row>
-    <row r="89" spans="7:8" s="17" customFormat="1">
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-    </row>
-    <row r="90" spans="7:8" s="17" customFormat="1">
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-    </row>
-    <row r="91" spans="7:8" s="17" customFormat="1">
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-    </row>
-    <row r="92" spans="7:8" s="17" customFormat="1">
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-    </row>
-    <row r="93" spans="7:8" s="17" customFormat="1">
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-    </row>
-    <row r="94" spans="7:8" s="17" customFormat="1">
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-    </row>
-    <row r="95" spans="7:8" s="17" customFormat="1">
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-    </row>
-    <row r="96" spans="7:8" s="17" customFormat="1">
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2667,118 +2421,118 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="20"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="19"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="20"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="19"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="20"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="19"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="20"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="19"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="20"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="19"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="20"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="20"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="20"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="20"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1"/>
@@ -2871,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA120942-40B8-4F99-BD55-B0705853F733}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.88671875" defaultRowHeight="14.4"/>
@@ -3120,6 +2874,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7371fa8e-a8d7-4a57-b0ec-03fd79a855f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="27408e3c-f979-49f9-b96b-54812834dee8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000506F7B53838E8479C56BCC165182AB8" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="73043ea91a878ec3323d6190f6a44d60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7371fa8e-a8d7-4a57-b0ec-03fd79a855f2" xmlns:ns3="27408e3c-f979-49f9-b96b-54812834dee8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbd2c86c38a28f7207af691db055391f" ns2:_="" ns3:_="">
     <xsd:import namespace="7371fa8e-a8d7-4a57-b0ec-03fd79a855f2"/>
@@ -3320,27 +3094,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75525C13-F740-40F3-B98F-97ECAF540270}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7371fa8e-a8d7-4a57-b0ec-03fd79a855f2"/>
+    <ds:schemaRef ds:uri="27408e3c-f979-49f9-b96b-54812834dee8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7371fa8e-a8d7-4a57-b0ec-03fd79a855f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="27408e3c-f979-49f9-b96b-54812834dee8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744C607-F9A1-4B3C-A235-79D177CBAD23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22FFD6CE-9ADC-4F28-9414-3E1EBAFFAA4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3357,23 +3130,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744C607-F9A1-4B3C-A235-79D177CBAD23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75525C13-F740-40F3-B98F-97ECAF540270}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7371fa8e-a8d7-4a57-b0ec-03fd79a855f2"/>
-    <ds:schemaRef ds:uri="27408e3c-f979-49f9-b96b-54812834dee8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>